--- a/WebPage/Common/RptTemplet/0207Report.xlsx
+++ b/WebPage/Common/RptTemplet/0207Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B868E54-63A5-4970-B2D4-F239178857FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A04022-2BDC-4FA7-A982-A8576F1BCF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="-15060" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="-10515" windowWidth="21600" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -249,45 +249,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,15 +587,15 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -592,104 +607,104 @@
     <col min="13" max="13" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WebPage/Common/RptTemplet/0207Report.xlsx
+++ b/WebPage/Common/RptTemplet/0207Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSIP2.0\csip_cardflow_sit\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A04022-2BDC-4FA7-A982-A8576F1BCF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="-10515" windowWidth="21600" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="-10515" windowWidth="21600" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,75 +46,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>出庫狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前日庫存</t>
+  </si>
+  <si>
+    <t>今日入庫</t>
+  </si>
+  <si>
+    <t>今日領卡</t>
+  </si>
+  <si>
+    <t>今日郵寄</t>
+  </si>
+  <si>
+    <t>今日註銷</t>
+  </si>
+  <si>
+    <t>今日庫存</t>
+  </si>
+  <si>
+    <t>＋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$PrintDate$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$DailyClose_Date$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$PreDailyCount$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$IntoStoreCount$</t>
+  </si>
+  <si>
+    <t>$OutStoreFCount$</t>
+  </si>
+  <si>
+    <t>$OutStoreMCount$</t>
+  </si>
+  <si>
+    <t>$OutStoreDCount$</t>
+  </si>
+  <si>
+    <t>$DailyCloseCount$</t>
+  </si>
+  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出庫狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前日庫存</t>
-  </si>
-  <si>
-    <t>今日入庫</t>
-  </si>
-  <si>
-    <t>今日領卡</t>
-  </si>
-  <si>
-    <t>今日郵寄</t>
-  </si>
-  <si>
-    <t>今日註銷</t>
-  </si>
-  <si>
-    <t>今日庫存</t>
-  </si>
-  <si>
-    <t>＋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>－</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$PrintDate$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$DailyClose_Date$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$PreDailyCount$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$IntoStoreCount$</t>
-  </si>
-  <si>
-    <t>$OutStoreFCount$</t>
-  </si>
-  <si>
-    <t>$OutStoreMCount$</t>
-  </si>
-  <si>
-    <t>$OutStoreDCount$</t>
-  </si>
-  <si>
-    <t>$DailyCloseCount$</t>
+    <t>羅馬姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -264,45 +267,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,136 +598,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="2" customWidth="1"/>
+    <col min="3" max="4" width="32.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>12</v>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11" t="s">
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
